--- a/data/Template/BuildingTemplate.xlsx
+++ b/data/Template/BuildingTemplate.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20250" windowHeight="4590"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
   <si>
     <t>ObjectID</t>
   </si>
@@ -566,13 +566,19 @@
   </si>
   <si>
     <t>DSpeficConsoHeatingElec</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Building</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -595,8 +601,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -611,6 +624,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -653,21 +671,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Entrée" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Satisfaisant" xfId="3" builtinId="26"/>
     <cellStyle name="Sortie" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -967,754 +990,578 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:GB18"/>
+  <dimension ref="A1:GB19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:184" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:184" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:184" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AO2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AP2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AR2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AS2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AT2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AU2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AV2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AW2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AX2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AY2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="AZ2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BA2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BB2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BC2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BD2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BE2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BF2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BG2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BH2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BI2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BJ2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BK2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BL2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BM2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BN2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BO2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BP2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BQ2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BR2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="BS2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="2" t="s">
+      <c r="BT2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="BU2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="2" t="s">
+      <c r="BV2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="2" t="s">
+      <c r="BW2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="2" t="s">
+      <c r="BX2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c r="BY2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="2" t="s">
+      <c r="BZ2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CA2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="2" t="s">
+      <c r="CB2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CC2" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="CD1" s="2" t="s">
+      <c r="CD2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="CE1" s="2" t="s">
+      <c r="CE2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CF2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CG2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="CH1" s="2" t="s">
+      <c r="CH2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="CI1" s="2" t="s">
+      <c r="CI2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="CJ1" s="2" t="s">
+      <c r="CJ2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="CK1" s="2" t="s">
+      <c r="CK2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="CL1" s="2" t="s">
+      <c r="CL2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="CM1" s="2" t="s">
+      <c r="CM2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="CN1" s="2" t="s">
+      <c r="CN2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="CO1" s="2" t="s">
+      <c r="CO2" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CP1" s="2" t="s">
+      <c r="CP2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="CQ1" s="2" t="s">
+      <c r="CQ2" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="CR1" s="2" t="s">
+      <c r="CR2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="CS1" s="2" t="s">
+      <c r="CS2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="CT1" s="2" t="s">
+      <c r="CT2" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="CU1" s="2" t="s">
+      <c r="CU2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="CV1" s="2" t="s">
+      <c r="CV2" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="CW1" s="2" t="s">
+      <c r="CW2" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="CX1" s="2" t="s">
+      <c r="CX2" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="CY1" s="2" t="s">
+      <c r="CY2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="CZ1" s="2" t="s">
+      <c r="CZ2" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="DA1" s="2" t="s">
+      <c r="DA2" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="DB1" s="2" t="s">
+      <c r="DB2" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="DC1" s="2" t="s">
+      <c r="DC2" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="DD1" s="2" t="s">
+      <c r="DD2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="DE1" s="2" t="s">
+      <c r="DE2" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="DF1" s="2" t="s">
+      <c r="DF2" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="DG1" s="2" t="s">
+      <c r="DG2" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="DH1" s="2" t="s">
+      <c r="DH2" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="DI1" s="2" t="s">
+      <c r="DI2" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="DJ1" s="2" t="s">
+      <c r="DJ2" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="DK1" s="2" t="s">
+      <c r="DK2" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="DL1" s="2" t="s">
+      <c r="DL2" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="DM1" s="2" t="s">
+      <c r="DM2" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="DN1" s="2" t="s">
+      <c r="DN2" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="DO1" s="2" t="s">
+      <c r="DO2" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="DP1" s="2" t="s">
+      <c r="DP2" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="DQ1" s="2" t="s">
+      <c r="DQ2" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="DR1" s="2" t="s">
+      <c r="DR2" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="DS1" s="2" t="s">
+      <c r="DS2" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="DT1" s="2" t="s">
+      <c r="DT2" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="DU1" s="2" t="s">
+      <c r="DU2" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DV1" s="2" t="s">
+      <c r="DV2" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="DW1" s="2" t="s">
+      <c r="DW2" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="DX1" s="2" t="s">
+      <c r="DX2" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="DY1" s="2" t="s">
+      <c r="DY2" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="DZ1" s="2" t="s">
+      <c r="DZ2" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="EA1" s="2" t="s">
+      <c r="EA2" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="EB1" s="2" t="s">
+      <c r="EB2" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="EC1" s="2" t="s">
+      <c r="EC2" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="ED1" s="2" t="s">
+      <c r="ED2" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="EE1" s="2" t="s">
+      <c r="EE2" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="EF1" s="2" t="s">
+      <c r="EF2" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="EG1" s="2" t="s">
+      <c r="EG2" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="EH1" s="2" t="s">
+      <c r="EH2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="EI1" s="2" t="s">
+      <c r="EI2" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="EJ1" s="2" t="s">
+      <c r="EJ2" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="EK1" s="2" t="s">
+      <c r="EK2" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="EL1" s="2" t="s">
+      <c r="EL2" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="EM1" s="2" t="s">
+      <c r="EM2" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="EN1" s="2" t="s">
+      <c r="EN2" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="EO1" s="2" t="s">
+      <c r="EO2" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="EP1" s="2" t="s">
+      <c r="EP2" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="EQ1" s="2" t="s">
+      <c r="EQ2" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="ER1" s="2" t="s">
+      <c r="ER2" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="ES1" s="2" t="s">
+      <c r="ES2" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="ET1" s="2" t="s">
+      <c r="ET2" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="EU1" s="2" t="s">
+      <c r="EU2" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="EV1" s="2" t="s">
+      <c r="EV2" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="EW1" s="2" t="s">
+      <c r="EW2" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="EX1" s="2" t="s">
+      <c r="EX2" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="EY1" s="2" t="s">
+      <c r="EY2" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="EZ1" s="2" t="s">
+      <c r="EZ2" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="FA1" s="2" t="s">
+      <c r="FA2" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="FB1" s="2" t="s">
+      <c r="FB2" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="FC1" s="2" t="s">
+      <c r="FC2" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="FD1" s="2" t="s">
+      <c r="FD2" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="FE1" s="2" t="s">
+      <c r="FE2" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="FF1" s="2" t="s">
+      <c r="FF2" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="FG1" s="2" t="s">
+      <c r="FG2" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="FH1" s="2" t="s">
+      <c r="FH2" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="FI1" s="2" t="s">
+      <c r="FI2" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="FJ1" s="2" t="s">
+      <c r="FJ2" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="FK1" s="2" t="s">
+      <c r="FK2" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="FL1" s="2" t="s">
+      <c r="FL2" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="FM1" s="2" t="s">
+      <c r="FM2" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="FN1" s="2" t="s">
+      <c r="FN2" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="FO1" s="2" t="s">
+      <c r="FO2" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="FP1" s="2" t="s">
+      <c r="FP2" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="FQ1" s="2" t="s">
+      <c r="FQ2" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="FR1" s="2" t="s">
+      <c r="FR2" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="FS1" s="2" t="s">
+      <c r="FS2" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="FT1" s="2" t="s">
+      <c r="FT2" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="FU1" s="2" t="s">
+      <c r="FU2" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="FV1" s="2" t="s">
+      <c r="FV2" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="FW1" s="2" t="s">
+      <c r="FW2" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="FX1" s="2" t="s">
+      <c r="FX2" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="FY1" s="2" t="s">
+      <c r="FY2" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="FZ1" s="2" t="s">
+      <c r="FZ2" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="GA1" s="2" t="s">
+      <c r="GA2" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="GB1" s="2" t="s">
+      <c r="GB2" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="2" spans="1:184" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1"/>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="1"/>
-      <c r="AL2" s="1"/>
-      <c r="AM2" s="1"/>
-      <c r="AN2" s="1"/>
-      <c r="AO2" s="1"/>
-      <c r="AP2" s="1"/>
-      <c r="AQ2" s="1"/>
-      <c r="AR2" s="1"/>
-      <c r="AS2" s="1"/>
-      <c r="AT2" s="1"/>
-      <c r="AU2" s="1"/>
-      <c r="AV2" s="1"/>
-      <c r="AW2" s="1"/>
-      <c r="AX2" s="1"/>
-      <c r="AY2" s="1"/>
-      <c r="AZ2" s="1"/>
-      <c r="BA2" s="1"/>
-      <c r="BB2" s="1"/>
-      <c r="BC2" s="1"/>
-      <c r="BD2" s="1"/>
-      <c r="BE2" s="1"/>
-      <c r="BF2" s="1"/>
-      <c r="BG2" s="1"/>
-      <c r="BH2" s="1"/>
-      <c r="BI2" s="1"/>
-      <c r="BJ2" s="1"/>
-      <c r="BK2" s="1"/>
-      <c r="BL2" s="1"/>
-      <c r="BM2" s="1"/>
-      <c r="BN2" s="1"/>
-      <c r="BO2" s="1"/>
-      <c r="BP2" s="1"/>
-      <c r="BQ2" s="1"/>
-      <c r="BR2" s="1"/>
-      <c r="BS2" s="1"/>
-      <c r="BT2" s="1"/>
-      <c r="BU2" s="1"/>
-      <c r="BV2" s="1"/>
-      <c r="BW2" s="1"/>
-      <c r="BX2" s="1"/>
-      <c r="BY2" s="1"/>
-      <c r="BZ2" s="1"/>
-      <c r="CA2" s="1"/>
-      <c r="CB2" s="1"/>
-      <c r="CC2" s="1"/>
-      <c r="CD2" s="1"/>
-      <c r="CE2" s="1"/>
-      <c r="CF2" s="1"/>
-      <c r="CG2" s="1"/>
-      <c r="CH2" s="1"/>
-      <c r="CI2" s="1"/>
-      <c r="CJ2" s="1"/>
-      <c r="CK2" s="1"/>
-      <c r="CL2" s="1"/>
-      <c r="CM2" s="1"/>
-      <c r="CN2" s="1"/>
-      <c r="CO2" s="1"/>
-      <c r="CP2" s="1"/>
-      <c r="CQ2" s="1"/>
-      <c r="CR2" s="1"/>
-      <c r="CS2" s="1"/>
-      <c r="CT2" s="1"/>
-      <c r="CU2" s="1"/>
-      <c r="CV2" s="1"/>
-      <c r="CW2" s="1"/>
-      <c r="CX2" s="1"/>
-      <c r="CY2" s="1"/>
-      <c r="CZ2" s="1"/>
-      <c r="DA2" s="1"/>
-      <c r="DB2" s="1"/>
-      <c r="DC2" s="1"/>
-      <c r="DD2" s="1"/>
-      <c r="DE2" s="1"/>
-      <c r="DF2" s="1"/>
-      <c r="DG2" s="1"/>
-      <c r="DH2" s="1"/>
-      <c r="DI2" s="1"/>
-      <c r="DJ2" s="1"/>
-      <c r="DK2" s="1"/>
-      <c r="DL2" s="1"/>
-      <c r="DM2" s="1"/>
-      <c r="DN2" s="1"/>
-      <c r="DO2" s="1"/>
-      <c r="DP2" s="1"/>
-      <c r="DQ2" s="1"/>
-      <c r="DR2" s="1"/>
-      <c r="DS2" s="1"/>
-      <c r="DT2" s="1"/>
-      <c r="DU2" s="1"/>
-      <c r="DV2" s="1"/>
-      <c r="DW2" s="1"/>
-      <c r="DX2" s="1"/>
-      <c r="DY2" s="1"/>
-      <c r="DZ2" s="1"/>
-      <c r="EA2" s="1"/>
-      <c r="EB2" s="1"/>
-      <c r="EC2" s="1"/>
-      <c r="ED2" s="1"/>
-      <c r="EE2" s="1"/>
-      <c r="EF2" s="1"/>
-      <c r="EG2" s="1"/>
-      <c r="EH2" s="1"/>
-      <c r="EI2" s="1"/>
-      <c r="EJ2" s="1"/>
-      <c r="EK2" s="1"/>
-      <c r="EL2" s="1"/>
-      <c r="EM2" s="1"/>
-      <c r="EN2" s="1"/>
-      <c r="EO2" s="1"/>
-      <c r="EP2" s="1"/>
-      <c r="EQ2" s="1"/>
-      <c r="ER2" s="1"/>
-      <c r="ES2" s="1"/>
-      <c r="ET2" s="1"/>
-      <c r="EU2" s="1"/>
-      <c r="EV2" s="1"/>
-      <c r="EW2" s="1"/>
-      <c r="EX2" s="1"/>
-      <c r="EY2" s="1"/>
-      <c r="EZ2" s="1"/>
-      <c r="FA2" s="1"/>
-      <c r="FB2" s="1"/>
-      <c r="FC2" s="1"/>
-      <c r="FD2" s="1"/>
-      <c r="FE2" s="1"/>
-      <c r="FF2" s="1"/>
-      <c r="FG2" s="1"/>
-      <c r="FH2" s="1"/>
-      <c r="FI2" s="1"/>
-      <c r="FJ2" s="1"/>
-      <c r="FK2" s="1"/>
-      <c r="FL2" s="1"/>
-      <c r="FM2" s="1"/>
-      <c r="FN2" s="1"/>
-      <c r="FO2" s="1"/>
-      <c r="FP2" s="1"/>
-      <c r="FQ2" s="1"/>
-      <c r="FR2" s="1"/>
-      <c r="FS2" s="1"/>
-      <c r="FT2" s="1"/>
-      <c r="FU2" s="1"/>
-      <c r="FV2" s="1"/>
-      <c r="FW2" s="1"/>
-      <c r="FX2" s="1"/>
-      <c r="FY2" s="1"/>
-      <c r="FZ2" s="1"/>
-      <c r="GA2" s="1"/>
-      <c r="GB2" s="1"/>
     </row>
     <row r="3" spans="1:184" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -4692,6 +4539,192 @@
       <c r="GA18" s="1"/>
       <c r="GB18" s="1"/>
     </row>
+    <row r="19" spans="1:184" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="1"/>
+      <c r="AO19" s="1"/>
+      <c r="AP19" s="1"/>
+      <c r="AQ19" s="1"/>
+      <c r="AR19" s="1"/>
+      <c r="AS19" s="1"/>
+      <c r="AT19" s="1"/>
+      <c r="AU19" s="1"/>
+      <c r="AV19" s="1"/>
+      <c r="AW19" s="1"/>
+      <c r="AX19" s="1"/>
+      <c r="AY19" s="1"/>
+      <c r="AZ19" s="1"/>
+      <c r="BA19" s="1"/>
+      <c r="BB19" s="1"/>
+      <c r="BC19" s="1"/>
+      <c r="BD19" s="1"/>
+      <c r="BE19" s="1"/>
+      <c r="BF19" s="1"/>
+      <c r="BG19" s="1"/>
+      <c r="BH19" s="1"/>
+      <c r="BI19" s="1"/>
+      <c r="BJ19" s="1"/>
+      <c r="BK19" s="1"/>
+      <c r="BL19" s="1"/>
+      <c r="BM19" s="1"/>
+      <c r="BN19" s="1"/>
+      <c r="BO19" s="1"/>
+      <c r="BP19" s="1"/>
+      <c r="BQ19" s="1"/>
+      <c r="BR19" s="1"/>
+      <c r="BS19" s="1"/>
+      <c r="BT19" s="1"/>
+      <c r="BU19" s="1"/>
+      <c r="BV19" s="1"/>
+      <c r="BW19" s="1"/>
+      <c r="BX19" s="1"/>
+      <c r="BY19" s="1"/>
+      <c r="BZ19" s="1"/>
+      <c r="CA19" s="1"/>
+      <c r="CB19" s="1"/>
+      <c r="CC19" s="1"/>
+      <c r="CD19" s="1"/>
+      <c r="CE19" s="1"/>
+      <c r="CF19" s="1"/>
+      <c r="CG19" s="1"/>
+      <c r="CH19" s="1"/>
+      <c r="CI19" s="1"/>
+      <c r="CJ19" s="1"/>
+      <c r="CK19" s="1"/>
+      <c r="CL19" s="1"/>
+      <c r="CM19" s="1"/>
+      <c r="CN19" s="1"/>
+      <c r="CO19" s="1"/>
+      <c r="CP19" s="1"/>
+      <c r="CQ19" s="1"/>
+      <c r="CR19" s="1"/>
+      <c r="CS19" s="1"/>
+      <c r="CT19" s="1"/>
+      <c r="CU19" s="1"/>
+      <c r="CV19" s="1"/>
+      <c r="CW19" s="1"/>
+      <c r="CX19" s="1"/>
+      <c r="CY19" s="1"/>
+      <c r="CZ19" s="1"/>
+      <c r="DA19" s="1"/>
+      <c r="DB19" s="1"/>
+      <c r="DC19" s="1"/>
+      <c r="DD19" s="1"/>
+      <c r="DE19" s="1"/>
+      <c r="DF19" s="1"/>
+      <c r="DG19" s="1"/>
+      <c r="DH19" s="1"/>
+      <c r="DI19" s="1"/>
+      <c r="DJ19" s="1"/>
+      <c r="DK19" s="1"/>
+      <c r="DL19" s="1"/>
+      <c r="DM19" s="1"/>
+      <c r="DN19" s="1"/>
+      <c r="DO19" s="1"/>
+      <c r="DP19" s="1"/>
+      <c r="DQ19" s="1"/>
+      <c r="DR19" s="1"/>
+      <c r="DS19" s="1"/>
+      <c r="DT19" s="1"/>
+      <c r="DU19" s="1"/>
+      <c r="DV19" s="1"/>
+      <c r="DW19" s="1"/>
+      <c r="DX19" s="1"/>
+      <c r="DY19" s="1"/>
+      <c r="DZ19" s="1"/>
+      <c r="EA19" s="1"/>
+      <c r="EB19" s="1"/>
+      <c r="EC19" s="1"/>
+      <c r="ED19" s="1"/>
+      <c r="EE19" s="1"/>
+      <c r="EF19" s="1"/>
+      <c r="EG19" s="1"/>
+      <c r="EH19" s="1"/>
+      <c r="EI19" s="1"/>
+      <c r="EJ19" s="1"/>
+      <c r="EK19" s="1"/>
+      <c r="EL19" s="1"/>
+      <c r="EM19" s="1"/>
+      <c r="EN19" s="1"/>
+      <c r="EO19" s="1"/>
+      <c r="EP19" s="1"/>
+      <c r="EQ19" s="1"/>
+      <c r="ER19" s="1"/>
+      <c r="ES19" s="1"/>
+      <c r="ET19" s="1"/>
+      <c r="EU19" s="1"/>
+      <c r="EV19" s="1"/>
+      <c r="EW19" s="1"/>
+      <c r="EX19" s="1"/>
+      <c r="EY19" s="1"/>
+      <c r="EZ19" s="1"/>
+      <c r="FA19" s="1"/>
+      <c r="FB19" s="1"/>
+      <c r="FC19" s="1"/>
+      <c r="FD19" s="1"/>
+      <c r="FE19" s="1"/>
+      <c r="FF19" s="1"/>
+      <c r="FG19" s="1"/>
+      <c r="FH19" s="1"/>
+      <c r="FI19" s="1"/>
+      <c r="FJ19" s="1"/>
+      <c r="FK19" s="1"/>
+      <c r="FL19" s="1"/>
+      <c r="FM19" s="1"/>
+      <c r="FN19" s="1"/>
+      <c r="FO19" s="1"/>
+      <c r="FP19" s="1"/>
+      <c r="FQ19" s="1"/>
+      <c r="FR19" s="1"/>
+      <c r="FS19" s="1"/>
+      <c r="FT19" s="1"/>
+      <c r="FU19" s="1"/>
+      <c r="FV19" s="1"/>
+      <c r="FW19" s="1"/>
+      <c r="FX19" s="1"/>
+      <c r="FY19" s="1"/>
+      <c r="FZ19" s="1"/>
+      <c r="GA19" s="1"/>
+      <c r="GB19" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4699,9 +4732,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4819,25 +4855,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2717BE8C-7A95-4F71-91DA-6A220100E1F6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{169C6B33-E365-4B7B-BEAB-53C87CB26C7F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4859,9 +4885,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{169C6B33-E365-4B7B-BEAB-53C87CB26C7F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2717BE8C-7A95-4F71-91DA-6A220100E1F6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>